--- a/analysis/metadata/P11_3/P11_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_3/P11_3_minimal_metadata.xlsx
@@ -471,6 +471,11 @@
           <t>halkjær bredding</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>06/04/2022 00:00</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>cellulose nitrat ester 0.2, filtered 0.6 l</t>
@@ -497,11 +502,6 @@
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>04/07/2022 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -572,11 +572,6 @@
       <c r="O3" t="inlineStr">
         <is>
           <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Fjords?</t>
         </is>
       </c>
     </row>
@@ -614,7 +609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>04/07/2022 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,11 +640,6 @@
       <c r="O4" t="inlineStr">
         <is>
           <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Fjords?</t>
         </is>
       </c>
     </row>
@@ -687,7 +677,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>04/07/2022 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -716,11 +706,6 @@
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -760,7 +745,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>04/07/2022 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,11 +774,6 @@
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -833,7 +813,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>26/02/2022 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,11 +844,6 @@
       <c r="O7" t="inlineStr">
         <is>
           <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Fjords?</t>
         </is>
       </c>
     </row>
@@ -906,7 +881,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/07/2022 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -935,11 +910,6 @@
         </is>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -979,7 +949,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>04/07/2022 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,11 +978,6 @@
         </is>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -1052,7 +1017,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>04/07/2022 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1081,11 +1046,6 @@
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -1125,7 +1085,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>04/07/2022 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1154,11 +1114,6 @@
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -1198,7 +1153,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>04/07/2022 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1227,11 +1182,6 @@
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -1271,7 +1221,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/07/2022 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1300,11 +1250,6 @@
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -1344,7 +1289,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/07/2022 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1373,11 +1318,6 @@
         </is>
       </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -1417,7 +1357,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/07/2022 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1448,11 +1388,6 @@
       <c r="O15" t="inlineStr">
         <is>
           <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Fjords?</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1425,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/07/2022 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1519,11 +1454,6 @@
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -1563,7 +1493,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/07/2022 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1594,11 +1524,6 @@
       <c r="O17" t="inlineStr">
         <is>
           <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Fjords?</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1561,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>03/07/2022 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1667,11 +1592,6 @@
       <c r="O18" t="inlineStr">
         <is>
           <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Fjords?</t>
         </is>
       </c>
     </row>
@@ -1707,6 +1627,11 @@
           <t>grund fjord</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>26/02/2022 00:00</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>cellulose acetat, 425 ml</t>
@@ -1733,11 +1658,6 @@
         </is>
       </c>
       <c r="O19" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -1775,6 +1695,11 @@
           <t>halkjær bredding</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>06/04/2022 00:00</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>mixed cellulose ester 0.22, filtered 0.75 l</t>
@@ -1801,11 +1726,6 @@
         </is>
       </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -1843,6 +1763,11 @@
           <t>halkjær bredding</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>06/04/2022 00:00</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>mixed cellulose ester 0.45, filtered 0.55 l</t>
@@ -1869,11 +1794,6 @@
         </is>
       </c>
       <c r="O21" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -1911,6 +1831,11 @@
           <t>nissum fjord</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>24/02/2022 00:00</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>P11_3</t>
@@ -1934,11 +1859,6 @@
       <c r="O22" t="inlineStr">
         <is>
           <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Fjords?</t>
         </is>
       </c>
     </row>
@@ -1974,6 +1894,11 @@
           <t>skive fjord</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>26/02/2022 00:00</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>cellulose nitrat ester 0.2 pore, 650 ml</t>
@@ -2000,11 +1925,6 @@
         </is>
       </c>
       <c r="O23" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -2042,6 +1962,11 @@
           <t>randers by</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>26/02/2022 00:00</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>cellulose acetat, 350 ml</t>
@@ -2068,11 +1993,6 @@
         </is>
       </c>
       <c r="O24" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -2110,6 +2030,11 @@
           <t>udbyhøj</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>26/02/2022 00:00</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>cellulose acetat, 600 ml</t>
@@ -2136,11 +2061,6 @@
         </is>
       </c>
       <c r="O25" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -2178,6 +2098,11 @@
           <t>skive fjord</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>26/02/2022 00:00</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>mixed cellulose ester 0.22, 700 ml</t>
@@ -2204,11 +2129,6 @@
         </is>
       </c>
       <c r="O26" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -2248,7 +2168,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>26/02/2022 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2277,11 +2197,6 @@
         </is>
       </c>
       <c r="O27" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -2321,7 +2236,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>22/02/2022 00:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2347,11 +2262,6 @@
       <c r="O28" t="inlineStr">
         <is>
           <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Fjords?</t>
         </is>
       </c>
     </row>
@@ -2387,6 +2297,11 @@
           <t>udbyhøj</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>26/02/2022 00:00</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>mixed cellulose ester, 525 ml</t>
@@ -2413,11 +2328,6 @@
         </is>
       </c>
       <c r="O29" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -2455,6 +2365,11 @@
           <t>nissum fjord</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>26/02/2022 00:00</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>cellulose acetat filter. filtered 0.35 l</t>
@@ -2481,11 +2396,6 @@
         </is>
       </c>
       <c r="O30" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -2523,6 +2433,11 @@
           <t>nissum fjord</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>26/02/2022 00:00</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>mixed cellulose ester filter. filtered 0.3 l</t>
@@ -2549,11 +2464,6 @@
         </is>
       </c>
       <c r="O31" t="inlineStr">
-        <is>
-          <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
         <is>
           <t>Fjords</t>
         </is>
@@ -2593,7 +2503,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>18/02/2022 00:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2619,11 +2529,6 @@
       <c r="O32" t="inlineStr">
         <is>
           <t>Fjords</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Fjords?</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P11_3/P11_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_3/P11_3_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>06/04/2022 00:00</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>04/07/2022 00:00</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>04/07/2022 00:00</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>04/07/2022 00:00</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>04/07/2022 00:00</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26/02/2022 00:00</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>03/07/2022 00:00</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>04/07/2022 00:00</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>04/07/2022 00:00</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>04/07/2022 00:00</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>04/07/2022 00:00</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>03/07/2022 00:00</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>03/07/2022 00:00</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>03/07/2022 00:00</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>03/07/2022 00:00</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>03/07/2022 00:00</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>03/07/2022 00:00</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>26/02/2022 00:00</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>06/04/2022 00:00</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>06/04/2022 00:00</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>24/02/2022 00:00</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>26/02/2022 00:00</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>26/02/2022 00:00</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>26/02/2022 00:00</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>26/02/2022 00:00</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>26/02/2022 00:00</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>22/02/2022 00:00</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>26/02/2022 00:00</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>26/02/2022 00:00</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>26/02/2022 00:00</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>18/02/2022 00:00</t>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">

--- a/analysis/metadata/P11_3/P11_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_3/P11_3_minimal_metadata.xlsx
@@ -496,6 +496,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -564,6 +569,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -632,6 +642,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -700,6 +715,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -768,6 +788,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -836,6 +861,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -904,6 +934,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -972,6 +1007,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1040,6 +1080,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1108,6 +1153,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1176,6 +1226,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1244,6 +1299,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1312,6 +1372,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1380,6 +1445,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1448,6 +1518,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1516,6 +1591,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1584,6 +1664,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1652,6 +1737,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1720,6 +1810,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1788,6 +1883,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1851,6 +1951,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1919,6 +2024,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -1987,6 +2097,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -2055,6 +2170,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -2123,6 +2243,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -2191,6 +2316,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -2254,6 +2384,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2022-02-22</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -2322,6 +2457,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -2390,6 +2530,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -2458,6 +2603,11 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>Saltwater</t>
@@ -2519,6 +2669,11 @@
       <c r="L32" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
